--- a/CapturaDistrito22/Reportes/ReporteGeneral.xlsx
+++ b/CapturaDistrito22/Reportes/ReporteGeneral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\HTDOCS\EncuestaRapida\MedicionRapida\Reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\EncuestaRapida\CapturaDistrito22\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,44 +23,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>FechaCaptura</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Estatus Numero</t>
-  </si>
-  <si>
-    <t>Principales Necesidades</t>
-  </si>
-  <si>
-    <t>Otras Necesidades</t>
-  </si>
-  <si>
-    <t>Cree que su presidente Municipal o su Diputado podría realizar las gestiones</t>
-  </si>
-  <si>
-    <t>Usted votará por el candidato o por el partido que representa</t>
-  </si>
-  <si>
-    <t>Observaciones de la llamada</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,20 +34,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -100,24 +53,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,29 +73,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,114 +363,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G9" s="4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
